--- a/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/COMBINED GRAPHS OF BOTH N=2, N=3 AND N=4.xlsx
+++ b/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/COMBINED GRAPHS OF BOTH N=2, N=3 AND N=4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1E338E22-AEF8-498A-A7D6-A0912115D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7591EA9-7357-4BB4-A389-692719031E4F}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{1E338E22-AEF8-498A-A7D6-A0912115D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF5263E7-92CF-4D66-927A-4E529646F391}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaCl2" sheetId="3" r:id="rId1"/>
@@ -1003,7 +1003,7 @@
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>This Work (N=2)</c:v>
+            <c:v>This Work (n=2)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1622,7 +1622,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>This Work (N=3)</c:v>
+            <c:v>This Work (n=3)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3513,7 +3513,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>This Work (N=4)</c:v>
+            <c:v>This Work (n=4)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5104,6 +5104,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -5397,7 +5398,7 @@
           <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>This Work (N=2)</c:v>
+            <c:v>This Work (n=2)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -6064,7 +6065,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>This Work (N=3)</c:v>
+            <c:v>This Work (n=3)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -7379,7 +7380,7 @@
           <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>This Work (N=4)</c:v>
+            <c:v>This Work (n=4)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -8452,7 +8453,7 @@
           <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>This Work (N=2)</c:v>
+            <c:v>This Work (n=2)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
@@ -10103,7 +10104,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>This Work (N=3)</c:v>
+            <c:v>This Work (n=3)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -10998,7 +10999,7 @@
           <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>This Work (N=4)</c:v>
+            <c:v>This Work (n=4)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -12789,6 +12790,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -13308,7 +13310,7 @@
           <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>This Work (N=2)</c:v>
+            <c:v>This Work (n=2)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
@@ -15427,7 +15429,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>This Work (N=3)</c:v>
+            <c:v>This Work (n=3)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -17558,7 +17560,7 @@
           <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>This Work (N=4)</c:v>
+            <c:v>This Work (n=4)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -19638,8 +19640,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15750601851851853"/>
           <c:y val="6.6801097210757818E-2"/>
-          <c:w val="0.59463796296296301"/>
-          <c:h val="0.1397791666666667"/>
+          <c:w val="0.54384786974991561"/>
+          <c:h val="0.12287302844540884"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -20589,7 +20591,7 @@
           <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>This Work (N=2)</c:v>
+            <c:v>This Work (n=2)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -22276,7 +22278,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>This Work (N=3)</c:v>
+            <c:v>This Work (n=3)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -22745,7 +22747,7 @@
           <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>This Work (N=4)</c:v>
+            <c:v>This Work (n=4)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -24449,7 +24451,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1555974537037037"/>
-          <c:y val="6.9416744650177845E-2"/>
+          <c:y val="6.6497489932145423E-2"/>
           <c:w val="0.54466111111111115"/>
           <c:h val="0.14271898148148149"/>
         </c:manualLayout>
@@ -27168,16 +27170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27192,8 +27194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9745980" y="967740"/>
-          <a:ext cx="518160" cy="175260"/>
+          <a:off x="10660380" y="1748790"/>
+          <a:ext cx="518160" cy="232410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27224,23 +27226,46 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2H</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>O</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -27248,16 +27273,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27272,16 +27297,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9098280" y="2042160"/>
-          <a:ext cx="518160" cy="175260"/>
+          <a:off x="9517380" y="2900680"/>
+          <a:ext cx="518160" cy="255270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -27304,23 +27327,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>4H</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>O</a:t>
           </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -27329,15 +27359,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27352,16 +27382,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8511540" y="2522220"/>
-          <a:ext cx="518160" cy="175260"/>
+          <a:off x="8244840" y="3135630"/>
+          <a:ext cx="594360" cy="248920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -27384,23 +27412,46 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>6H</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>O</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -27408,39 +27459,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>258892</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>135539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>472640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28713</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Left Brace 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09FE4DF-4BFF-441F-A3FD-C6BF6C57F442}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4784133E-1B04-C3F8-EE50-39B1D9EA99DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10134600" y="1226820"/>
-          <a:ext cx="190500" cy="152400"/>
+        <a:xfrm rot="12892969">
+          <a:off x="10622092" y="687989"/>
+          <a:ext cx="213748" cy="1918824"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 107110"/>
+            <a:gd name="adj2" fmla="val 47834"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -27456,119 +27507,317 @@
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A548F8C-D1FB-4683-8124-B9868F284699}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9441180" y="2278380"/>
-          <a:ext cx="106680" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45121F1-3C9F-424B-838F-FAB242DAEC6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8610600" y="2766060"/>
-          <a:ext cx="83820" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16404</cdr:x>
+      <cdr:y>0.62636</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.36411</cdr:x>
+      <cdr:y>0.66879</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Left Brace 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A785C6B0-6ACE-F3EF-07DE-0ABFFD7E84C2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="17494280">
+          <a:off x="1048514" y="2385103"/>
+          <a:ext cx="184598" cy="864298"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36813"/>
+            <a:gd name="adj2" fmla="val 47834"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36326</cdr:x>
+      <cdr:y>0.5863</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65334</cdr:x>
+      <cdr:y>0.62408</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Left Brace 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1347088-A698-1485-CFFE-E69FCC7F9C92}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="13924967">
+          <a:off x="2113662" y="2006301"/>
+          <a:ext cx="164367" cy="1253165"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62575"/>
+            <a:gd name="adj2" fmla="val 47834"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -27611,15 +27860,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27634,8 +27883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11490960" y="1409700"/>
-          <a:ext cx="518160" cy="175260"/>
+          <a:off x="11705590" y="1596390"/>
+          <a:ext cx="518160" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27666,22 +27915,25 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>H</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>O</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -27691,15 +27943,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>170180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27714,8 +27966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9418320" y="2773680"/>
-          <a:ext cx="883920" cy="198120"/>
+          <a:off x="9721850" y="2932430"/>
+          <a:ext cx="883920" cy="199390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27746,19 +27998,22 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Liquid + ice</a:t>
+            <a:t>Liquid + Ice</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050" baseline="0">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1050">
-            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -27767,39 +28022,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>386265</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>340806</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20019</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Left Brace 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94ABC4C6-D966-4DBD-8D34-D995DB038DEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461B3019-BBDB-1011-0928-A621B9EF2ABB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11308080" y="1691640"/>
-          <a:ext cx="213360" cy="129540"/>
+        <a:xfrm rot="16381547">
+          <a:off x="10327903" y="1682265"/>
+          <a:ext cx="175366" cy="2392941"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 135276"/>
+            <a:gd name="adj2" fmla="val 47834"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -27815,13 +28070,262 @@
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>220507</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>418472</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Left Brace 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B01F1B-9E85-4B33-95C9-868230130C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10155842">
+          <a:off x="11491757" y="637165"/>
+          <a:ext cx="197965" cy="2130037"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90124"/>
+            <a:gd name="adj2" fmla="val 47834"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -27864,15 +28368,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>349250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27887,8 +28391,930 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="3413760"/>
-          <a:ext cx="518160" cy="175260"/>
+          <a:off x="9493250" y="3404870"/>
+          <a:ext cx="615950" cy="201930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>5H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>O</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0663343B-D5DA-4A35-9B1A-E0260311B594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8023860" y="3175000"/>
+          <a:ext cx="993140" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Liquid + Ice</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>173990</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>562610</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E95C4A-D5B5-43C7-AC40-19EAB89871A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9927590" y="1352550"/>
+          <a:ext cx="998220" cy="229870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Liquid + LiCl</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1315C0F-0F25-4E03-ABFA-482BDF956319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10775950" y="2101850"/>
+          <a:ext cx="615950" cy="201930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>O</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F35D566-9967-4838-9CFC-DBCDF626EA41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10293350" y="2635250"/>
+          <a:ext cx="615950" cy="201930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>O</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Left Brace 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD85024-53D2-F01D-E1DF-D3101616B917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13189135">
+          <a:off x="9410699" y="3270250"/>
+          <a:ext cx="152400" cy="331470"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 27365"/>
+            <a:gd name="adj2" fmla="val 49177"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361643</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>407107</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Left Brace 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03268A34-46A7-9607-7863-1FA81F2EFB75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13552306">
+          <a:off x="9737912" y="2765839"/>
+          <a:ext cx="190525" cy="655064"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39659"/>
+            <a:gd name="adj2" fmla="val 49177"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>422053</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18007</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Left Brace 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EBEBC1-E190-12BE-D048-FFEE01EFA7FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13189135">
+          <a:off x="10175653" y="2369185"/>
+          <a:ext cx="205554" cy="556934"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33148"/>
+            <a:gd name="adj2" fmla="val 49177"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>277345</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>26977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>505232</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>151762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Left Brace 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED02AD01-26A3-72E2-7BE7-C75E1145DC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13038349">
+          <a:off x="10640545" y="1684327"/>
+          <a:ext cx="227887" cy="861385"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72816"/>
+            <a:gd name="adj2" fmla="val 49177"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42396</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>128577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>196701</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91747</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Left Brace 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAE8670-6EC6-7BA7-EBBC-E638E84272C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="11672975">
+          <a:off x="11015196" y="1417627"/>
+          <a:ext cx="154305" cy="331470"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 27365"/>
+            <a:gd name="adj2" fmla="val 49177"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.58943</cdr:x>
+      <cdr:y>0.64515</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73201</cdr:x>
+      <cdr:y>0.69156</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85A7B3D-17F2-4903-9C63-62DFADF5B753}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2546350" y="2806700"/>
+          <a:ext cx="615950" cy="201930"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>3H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>O</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE47AB5-A747-403C-869B-281858C03F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14592B20-CE6A-465B-91E0-98CE35B0AB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10114280" y="2832100"/>
+          <a:ext cx="642620" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27919,22 +29345,25 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>5H</a:t>
+            <a:t>11H</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>O</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -27943,23 +29372,353 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400683</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>100964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>454023</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Left Brace 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58899CDE-D25C-0CBB-D977-3E1A806A8596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4441933">
+          <a:off x="10458448" y="2800349"/>
+          <a:ext cx="156210" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42542"/>
+            <a:gd name="adj2" fmla="val 49177"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428177</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>219522</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
+        <xdr:cNvPr id="4" name="Left Brace 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93315D56-EF23-49EA-BF50-F7D41DB8E80C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2540AA-CE74-7597-849C-65B5E55F5A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4303324">
+          <a:off x="11257468" y="2361751"/>
+          <a:ext cx="179963" cy="1010545"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 73837"/>
+            <a:gd name="adj2" fmla="val 55565"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190739</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>126440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Left Brace 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CD2943-DB0D-59ED-1628-753363493C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3708367">
+          <a:off x="11998636" y="2352043"/>
+          <a:ext cx="135988" cy="485381"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42542"/>
+            <a:gd name="adj2" fmla="val 64643"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>491098</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>109879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Left Brace 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94788BC4-9FEB-100A-603B-678A8F469B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17320910">
+          <a:off x="10915405" y="769996"/>
+          <a:ext cx="207768" cy="2666781"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 132194"/>
+            <a:gd name="adj2" fmla="val 43309"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Left Brace 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E98326-7BEC-A470-E9FB-CD996CD6E547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12480248">
+          <a:off x="12376151" y="2387599"/>
+          <a:ext cx="123825" cy="732155"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 73837"/>
+            <a:gd name="adj2" fmla="val 55565"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA9524E-E412-441A-BEFD-0974D1592C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27967,16 +29726,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10035540" y="3063240"/>
-          <a:ext cx="518160" cy="175260"/>
+          <a:off x="10883900" y="2578100"/>
+          <a:ext cx="642620" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -27999,22 +29756,25 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>3H</a:t>
+            <a:t>7H</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>O</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -28023,23 +29783,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
+        <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC220123-4A0E-4DCB-B23A-30D0D4E42E6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3910233-AFC3-42FA-A2BA-6737518F90CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28047,16 +29807,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10363200" y="2735580"/>
-          <a:ext cx="518160" cy="175260"/>
+          <a:off x="11544300" y="2387600"/>
+          <a:ext cx="642620" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -28079,22 +29837,25 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>2H</a:t>
+            <a:t>6H</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>O</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -28103,23 +29864,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>59690</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>115570</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
+        <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0663343B-D5DA-4A35-9B1A-E0260311B594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7421CF8B-CC55-49C4-81C4-3EF4FC01368D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28127,16 +29888,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023860" y="3153410"/>
-          <a:ext cx="876300" cy="198120"/>
+          <a:off x="10496550" y="2159000"/>
+          <a:ext cx="642620" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -28159,10 +29918,25 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Liquid + ice</a:t>
+            <a:t>1H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>O</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -28171,23 +29945,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>344170</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>252730</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
+        <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A223B82D-19FE-44DE-A3BC-5506922E636B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B7F7CB-71BE-43F2-A90D-6E0E984F5F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28195,16 +29969,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10707370" y="2118360"/>
-          <a:ext cx="518160" cy="175260"/>
+          <a:off x="12446000" y="2692400"/>
+          <a:ext cx="514350" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -28227,1075 +29999,35 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>1H</a:t>
+            <a:t>5H</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>O</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E95C4A-D5B5-43C7-AC40-19EAB89871A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9730740" y="1356360"/>
-          <a:ext cx="998220" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Liquid + LiCl</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE8768B-BC6A-4A27-A246-ECD632EC4553}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9471660" y="3345180"/>
-          <a:ext cx="190500" cy="121920"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A501288-63FC-4E0D-8FA2-99B31184847C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9906000" y="2971800"/>
-          <a:ext cx="167640" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA178012-9851-410B-B857-01EA5D9BAA83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10256520" y="2621280"/>
-          <a:ext cx="175260" cy="121920"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C237C87-9C4B-4D8D-86F7-A6E53F4156FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10736580" y="1912620"/>
-          <a:ext cx="167640" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270A2B87-2791-4841-A9BA-BDD5701DC564}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10599420" y="1463040"/>
-          <a:ext cx="220980" cy="91440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>517620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83280</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE47AB5-A747-403C-869B-281858C03F6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C12F485-B22F-25B1-F638-6AFBC1030089}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9883140" y="1988820"/>
-          <a:ext cx="518160" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1H</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14592B20-CE6A-465B-91E0-98CE35B0AB7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9959340" y="2682240"/>
-          <a:ext cx="579120" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>11H</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3515E202-E037-43DE-9330-BF62969A78A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10599420" y="2476500"/>
-          <a:ext cx="518160" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>7H</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4251971D-ABB3-4858-87E3-E9CF1572BF89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11186160" y="2247900"/>
-          <a:ext cx="518160" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>6H</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0876CB15-AC86-44F4-89DA-BD796AE2F713}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12329160" y="2735580"/>
-          <a:ext cx="518160" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>5H</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37D1F85-98FC-2842-3C43-AD47F27803EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10142220" y="1844040"/>
-          <a:ext cx="144780" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBF79F6-8A0D-4C0A-9C05-DE837963F014}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="12062460" y="2766060"/>
-          <a:ext cx="259080" cy="68580"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD62FEC-21B6-4E5C-B66E-E41504A03B7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363200" y="2887980"/>
-          <a:ext cx="228600" cy="91440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E30A9FA-9521-4DF0-91BB-7361DA95B2FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="2667000"/>
-          <a:ext cx="198120" cy="83820"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC8C8B4-2ED0-49BE-81D3-27BAEA13F0AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11628120" y="2430780"/>
-          <a:ext cx="160020" cy="60960"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -29338,15 +30070,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>462280</xdr:colOff>
+      <xdr:colOff>291318</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>16510</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>566615</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -29361,8 +30093,75 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8387080" y="3125470"/>
-          <a:ext cx="883920" cy="242570"/>
+          <a:off x="8228818" y="3289202"/>
+          <a:ext cx="885874" cy="242863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Liquid + ice</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>183906</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>92466</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA11EDEC-540F-48E5-B0E6-3DAC56C9E30C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953137" y="3162740"/>
+          <a:ext cx="519137" cy="175553"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29393,10 +30192,25 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Liquid + ice</a:t>
+            <a:t>2H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>O</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -29405,23 +30219,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82305</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>39612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>103797</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97691</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
+        <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA11EDEC-540F-48E5-B0E6-3DAC56C9E30C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9877AE84-1AD7-45A6-9CED-985D5594999A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29429,16 +30243,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10248900" y="3139440"/>
-          <a:ext cx="518160" cy="175260"/>
+          <a:off x="10462113" y="2420862"/>
+          <a:ext cx="632069" cy="424425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -29461,99 +30273,22 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2H</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="800">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9877AE84-1AD7-45A6-9CED-985D5594999A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9220200" y="1150620"/>
-          <a:ext cx="982980" cy="265430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1050">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Liquid +</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1050" baseline="0">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> NaCl</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1050">
-            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -29562,39 +30297,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>553622</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>574821</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177947</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Left Brace 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A37F131-1335-4243-97AF-72A12AC03C00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBB1060-E7F3-BB0C-24FF-E8AE22CC8E5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10020300" y="1440180"/>
-          <a:ext cx="228600" cy="137160"/>
+        <a:xfrm rot="16512599">
+          <a:off x="8694615" y="2253029"/>
+          <a:ext cx="224790" cy="1852930"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 122673"/>
+            <a:gd name="adj2" fmla="val 49177"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -29610,44 +30346,57 @@
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:colOff>59522</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>103456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:colOff>471289</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>100037</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Left Brace 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3164100B-9EC4-4EA1-B81B-7A414FC13C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8C9CB7-211F-FD4B-5B58-1F05D540E52A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10050780" y="3078480"/>
-          <a:ext cx="259080" cy="114300"/>
+        <a:xfrm rot="14592898">
+          <a:off x="9944760" y="2918218"/>
+          <a:ext cx="179754" cy="411767"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 20939"/>
+            <a:gd name="adj2" fmla="val 49177"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -29663,7 +30412,85 @@
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>164856</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>347101</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Left Brace 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B61C1E-52C6-676E-6D5C-91E508601DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="11857920">
+          <a:off x="10544664" y="921972"/>
+          <a:ext cx="182245" cy="2080260"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 166565"/>
+            <a:gd name="adj2" fmla="val 44826"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -41104,7 +41931,7 @@
   <dimension ref="A1:K310"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45981,8 +46808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A1565-4142-41E8-BB36-B9E6593673C6}">
   <dimension ref="A1:K214"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48898,7 +49725,7 @@
   <dimension ref="A1:K270"/>
   <sheetViews>
     <sheetView topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54079,8 +54906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8418E175-113F-49CC-AA4E-89342B69008E}">
   <dimension ref="A1:K354"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61265,8 +62092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
